--- a/src/views/IngresarAdmin/templates/plantilla.xlsx
+++ b/src/views/IngresarAdmin/templates/plantilla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmanc\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos Github\Vitalink-FrontEnd\src\views\IngresarAdmin\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C79CC33-A8DB-439E-8E96-9B0104C53C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1726B8DB-E518-4DFE-ADC0-A45707AADBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17324A7E-3AF6-44C8-982D-3AEABA51ED02}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{17324A7E-3AF6-44C8-982D-3AEABA51ED02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Nombre</t>
   </si>
@@ -44,10 +44,13 @@
     <t>Apellidos</t>
   </si>
   <si>
-    <t>Fehca de Nacimiento</t>
+    <t>Correo electrónico</t>
   </si>
   <si>
-    <t>Correo electrónico</t>
+    <t>Sede</t>
+  </si>
+  <si>
+    <t>Fecha de Nacimiento</t>
   </si>
 </sst>
 </file>
@@ -104,10 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -126,9 +128,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -166,7 +168,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -272,7 +274,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -414,7 +416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -422,19 +424,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3044B3-63DF-4670-8C86-4BBD5CB902BF}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,23 +445,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
